--- a/biology/Zoologie/Colin_(poisson)/Colin_(poisson).xlsx
+++ b/biology/Zoologie/Colin_(poisson)/Colin_(poisson).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Colin est un nom vernaculaire ambigu en français, pouvant désigner plusieurs espèces différentes de poissons Gadiformes. Ce nom vernaculaire est aussi à la base de plusieurs noms normalisés ou de noms vulgaires créés pour la nomenclature scientifique en français. Ils sont souvent confondus dans le langage commun en tant que noms commerciaux[1] donnés à divers poissons blancs sur les étals, tels le merlu ou le lieu noir.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colin est un nom vernaculaire ambigu en français, pouvant désigner plusieurs espèces différentes de poissons Gadiformes. Ce nom vernaculaire est aussi à la base de plusieurs noms normalisés ou de noms vulgaires créés pour la nomenclature scientifique en français. Ils sont souvent confondus dans le langage commun en tant que noms commerciaux donnés à divers poissons blancs sur les étals, tels le merlu ou le lieu noir.
 </t>
         </is>
       </c>
@@ -511,18 +523,20 @@
           <t>Noms français et noms scientifiques correspondants</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Liste alphabétique des noms vulgaires ou des noms vernaculaires attestés en français.
 Note : certaines espèces ont plusieurs noms et, les classifications évoluant encore, certains noms scientifiques ont peut-être un autre synonyme valide. 
-Colin - merlu commun (Merluccius merluccius)[2],[3], lieu jaune (Pollachius pollachius)[2] et lieu noir (Pollachius virens)[2],[4]
-Colin d'Alaska - Theragra chalcogramma[5]
-Colin lieu - appellation commerciale d'un lieu noir (ou colin noir) surgelé[5]
+Colin - merlu commun (Merluccius merluccius) lieu jaune (Pollachius pollachius) et lieu noir (Pollachius virens),
+Colin d'Alaska - Theragra chalcogramma
+Colin lieu - appellation commerciale d'un lieu noir (ou colin noir) surgelé
 Colin de Noruega - Theragra finnmarchica[réf. nécessaire]
-Colin noir - lieu noir Pollachius virens[3],[4]
-Colineau, colinet - un petit lieu noir[3],[1].
+Colin noir - lieu noir Pollachius virens,
+Colineau, colinet - un petit lieu noir,.
 On rencontre aussi, bien qu'ils ne soient pas des Gadiformes, mais des Perciformes :
-le colin antarctique : légine australe (Dissostichus eleginoides)[3]
+le colin antarctique : légine australe (Dissostichus eleginoides)
 le colin de Kerguelen - Notothenia rossii[réf. nécessaire]</t>
         </is>
       </c>
